--- a/server/uploads/exports/transactions_06_2025.xlsx
+++ b/server/uploads/exports/transactions_06_2025.xlsx
@@ -397,19 +397,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="29.83203125" customWidth="1"/>
-    <col min="6" max="6" width="23.83203125" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" customWidth="1"/>
+    <col min="6" max="6" width="28.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" customWidth="1"/>
     <col min="9" max="9" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -447,25 +447,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>INV/20250620/6093</v>
+        <v>INV-20250629-7129</v>
       </c>
       <c r="C2" t="str">
-        <v>20-06-2025</v>
+        <v>02-02-2025</v>
       </c>
       <c r="D2" t="str">
-        <v>Wasita Kemal</v>
+        <v>Traci Fadel</v>
       </c>
       <c r="E2" t="str">
-        <v>bakiman.puspita37@yahoo.com</v>
+        <v>user18@student.unand.ac.id</v>
       </c>
       <c r="F2" t="str">
-        <v>Gedung PKM</v>
+        <v>Ruang Kuliah Utara</v>
       </c>
       <c r="G2" t="str">
-        <v>VIRTUAL_ACCOUNT</v>
+        <v>QRIS</v>
       </c>
       <c r="H2">
-        <v>3004559</v>
+        <v>276284</v>
       </c>
       <c r="I2" t="str">
         <v>PAID</v>
@@ -476,25 +476,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>INV/20250620/9000</v>
+        <v>INV-20250629-7372</v>
       </c>
       <c r="C3" t="str">
-        <v>20-06-2025</v>
+        <v>03-01-2025</v>
       </c>
       <c r="D3" t="str">
-        <v>Lamar Dirgantara</v>
+        <v>Bertha Conroy</v>
       </c>
       <c r="E3" t="str">
-        <v>kalim.darmawan@yahoo.com</v>
+        <v>user13@gmail.com</v>
       </c>
       <c r="F3" t="str">
-        <v>Auditorium Unand 1</v>
+        <v>Aula Utama</v>
       </c>
       <c r="G3" t="str">
-        <v>CREDIT_CARD</v>
+        <v>QRIS</v>
       </c>
       <c r="H3">
-        <v>4270292</v>
+        <v>805875</v>
       </c>
       <c r="I3" t="str">
         <v>PAID</v>
@@ -505,33 +505,787 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>INV/20250620/9207</v>
+        <v>INV-20250629-4900</v>
       </c>
       <c r="C4" t="str">
-        <v>20-06-2025</v>
+        <v>03-05-2025</v>
       </c>
       <c r="D4" t="str">
-        <v>Hartana Arifin</v>
+        <v>Charlene Kreiger</v>
       </c>
       <c r="E4" t="str">
-        <v>titin_santoso@yahoo.co.id</v>
+        <v>user14@student.unand.ac.id</v>
       </c>
       <c r="F4" t="str">
-        <v>Laboratorium Hydrogen</v>
+        <v>Gedung Serbaguna</v>
       </c>
       <c r="G4" t="str">
         <v>E_WALLET</v>
       </c>
       <c r="H4">
-        <v>3973981</v>
+        <v>830247</v>
       </c>
       <c r="I4" t="str">
+        <v>PAID</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>INV-20250629-9086</v>
+      </c>
+      <c r="C5" t="str">
+        <v>03-10-2024</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Marlene Moore</v>
+      </c>
+      <c r="E5" t="str">
+        <v>user22@gmail.com</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Ruang Kelas C301</v>
+      </c>
+      <c r="G5" t="str">
+        <v>CREDIT_CARD</v>
+      </c>
+      <c r="H5">
+        <v>171362</v>
+      </c>
+      <c r="I5" t="str">
+        <v>PAID</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>INV-20250629-9432</v>
+      </c>
+      <c r="C6" t="str">
+        <v>03-12-2024</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Pedro Walker</v>
+      </c>
+      <c r="E6" t="str">
+        <v>user3@student.unand.ac.id</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Creative Space</v>
+      </c>
+      <c r="G6" t="str">
+        <v>QRIS</v>
+      </c>
+      <c r="H6">
+        <v>282232</v>
+      </c>
+      <c r="I6" t="str">
+        <v>PAID</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>INV-20250629-5416</v>
+      </c>
+      <c r="C7" t="str">
+        <v>05-11-2024</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Bertha Conroy</v>
+      </c>
+      <c r="E7" t="str">
+        <v>user13@gmail.com</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Ruang Kelas C301</v>
+      </c>
+      <c r="G7" t="str">
+        <v>E_WALLET</v>
+      </c>
+      <c r="H7">
+        <v>154329</v>
+      </c>
+      <c r="I7" t="str">
+        <v>PAID</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>INV-20250629-6071</v>
+      </c>
+      <c r="C8" t="str">
+        <v>06-08-2024</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Alejandro Frami</v>
+      </c>
+      <c r="E8" t="str">
+        <v>user5@student.unand.ac.id</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Ruang Seminar Perpustakaan</v>
+      </c>
+      <c r="G8" t="str">
+        <v>E_WALLET</v>
+      </c>
+      <c r="H8">
+        <v>897962</v>
+      </c>
+      <c r="I8" t="str">
+        <v>PAID</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>INV-20250629-0341</v>
+      </c>
+      <c r="C9" t="str">
+        <v>12-01-2025</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Melinda Schultz</v>
+      </c>
+      <c r="E9" t="str">
+        <v>user9@student.unand.ac.id</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Ruang Seminar PKM</v>
+      </c>
+      <c r="G9" t="str">
+        <v>QRIS</v>
+      </c>
+      <c r="H9">
+        <v>234135</v>
+      </c>
+      <c r="I9" t="str">
+        <v>PAID</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>INV-20250629-0243</v>
+      </c>
+      <c r="C10" t="str">
+        <v>12-10-2024</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Guadalupe Parisian</v>
+      </c>
+      <c r="E10" t="str">
+        <v>user15@student.unand.ac.id</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Gedung Serbaguna</v>
+      </c>
+      <c r="G10" t="str">
+        <v>QRIS</v>
+      </c>
+      <c r="H10">
+        <v>253259</v>
+      </c>
+      <c r="I10" t="str">
+        <v>PAID</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <v>INV-20250629-3942</v>
+      </c>
+      <c r="C11" t="str">
+        <v>12-12-2024</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Mr. Randy Torp</v>
+      </c>
+      <c r="E11" t="str">
+        <v>user8@student.unand.ac.id</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Lab Komputer 1</v>
+      </c>
+      <c r="G11" t="str">
+        <v>E_WALLET</v>
+      </c>
+      <c r="H11">
+        <v>903387</v>
+      </c>
+      <c r="I11" t="str">
+        <v>PAID</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <v>INV-20250629-2092</v>
+      </c>
+      <c r="C12" t="str">
+        <v>13-06-2025</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Alejandro Frami</v>
+      </c>
+      <c r="E12" t="str">
+        <v>user5@student.unand.ac.id</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Lab Kimia</v>
+      </c>
+      <c r="G12" t="str">
+        <v>E_WALLET</v>
+      </c>
+      <c r="H12">
+        <v>981006</v>
+      </c>
+      <c r="I12" t="str">
+        <v>PAID</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <v>INV-20250629-6704</v>
+      </c>
+      <c r="C13" t="str">
+        <v>14-11-2024</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Wendy Mayer</v>
+      </c>
+      <c r="E13" t="str">
+        <v>user11@student.unand.ac.id</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Creative Space</v>
+      </c>
+      <c r="G13" t="str">
+        <v>E_WALLET</v>
+      </c>
+      <c r="H13">
+        <v>446061</v>
+      </c>
+      <c r="I13" t="str">
+        <v>PAID</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <v>INV-20250629-6531</v>
+      </c>
+      <c r="C14" t="str">
+        <v>15-11-2024</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Melinda Schultz</v>
+      </c>
+      <c r="E14" t="str">
+        <v>user9@student.unand.ac.id</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Ruang Seminar PKM</v>
+      </c>
+      <c r="G14" t="str">
+        <v>CREDIT_CARD</v>
+      </c>
+      <c r="H14">
+        <v>431936</v>
+      </c>
+      <c r="I14" t="str">
+        <v>PAID</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <v>INV-20250629-3560</v>
+      </c>
+      <c r="C15" t="str">
+        <v>17-08-2024</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Darin Armstrong</v>
+      </c>
+      <c r="E15" t="str">
+        <v>user20@student.unand.ac.id</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Ruang Seminar Perpustakaan</v>
+      </c>
+      <c r="G15" t="str">
+        <v>BANK_TRANSFER</v>
+      </c>
+      <c r="H15">
+        <v>563979</v>
+      </c>
+      <c r="I15" t="str">
+        <v>PAID</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <v>INV-20250629-2667</v>
+      </c>
+      <c r="C16" t="str">
+        <v>20-03-2025</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Aubrey Durgan</v>
+      </c>
+      <c r="E16" t="str">
+        <v>user12@student.unand.ac.id</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Ruang Sidang</v>
+      </c>
+      <c r="G16" t="str">
+        <v>QRIS</v>
+      </c>
+      <c r="H16">
+        <v>521140</v>
+      </c>
+      <c r="I16" t="str">
+        <v>PAID</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <v>INV-20250629-0734</v>
+      </c>
+      <c r="C17" t="str">
+        <v>20-07-2024</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Charlene Kreiger</v>
+      </c>
+      <c r="E17" t="str">
+        <v>user14@student.unand.ac.id</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Lab Fisika</v>
+      </c>
+      <c r="G17" t="str">
+        <v>CREDIT_CARD</v>
+      </c>
+      <c r="H17">
+        <v>299532</v>
+      </c>
+      <c r="I17" t="str">
+        <v>PAID</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <v>INV-20250629-0873</v>
+      </c>
+      <c r="C18" t="str">
+        <v>23-01-2025</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Guadalupe Parisian</v>
+      </c>
+      <c r="E18" t="str">
+        <v>user15@student.unand.ac.id</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Auditorium</v>
+      </c>
+      <c r="G18" t="str">
+        <v>BANK_TRANSFER</v>
+      </c>
+      <c r="H18">
+        <v>489937</v>
+      </c>
+      <c r="I18" t="str">
+        <v>PAID</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <v>INV-20250629-8433</v>
+      </c>
+      <c r="C19" t="str">
+        <v>23-11-2024</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Guadalupe Parisian</v>
+      </c>
+      <c r="E19" t="str">
+        <v>user15@student.unand.ac.id</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Creative Space</v>
+      </c>
+      <c r="G19" t="str">
+        <v>BANK_TRANSFER</v>
+      </c>
+      <c r="H19">
+        <v>402041</v>
+      </c>
+      <c r="I19" t="str">
+        <v>PAID</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <v>INV-20250629-7671</v>
+      </c>
+      <c r="C20" t="str">
+        <v>23-12-2024</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Ms. Jody Dickinson</v>
+      </c>
+      <c r="E20" t="str">
+        <v>user19@gmail.com</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Lab Komputer 1</v>
+      </c>
+      <c r="G20" t="str">
+        <v>QRIS</v>
+      </c>
+      <c r="H20">
+        <v>225037</v>
+      </c>
+      <c r="I20" t="str">
+        <v>PAID</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="str">
+        <v>INV-20250629-9960</v>
+      </c>
+      <c r="C21" t="str">
+        <v>24-06-2025</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Melinda Schultz</v>
+      </c>
+      <c r="E21" t="str">
+        <v>user9@student.unand.ac.id</v>
+      </c>
+      <c r="F21" t="str">
+        <v>Ruang Seminar PKM</v>
+      </c>
+      <c r="G21" t="str">
+        <v>CREDIT_CARD</v>
+      </c>
+      <c r="H21">
+        <v>512161</v>
+      </c>
+      <c r="I21" t="str">
+        <v>PAID</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <v>INV-20250629-4708</v>
+      </c>
+      <c r="C22" t="str">
+        <v>24-11-2024</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Bertha Conroy</v>
+      </c>
+      <c r="E22" t="str">
+        <v>user13@gmail.com</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Gedung Serbaguna</v>
+      </c>
+      <c r="G22" t="str">
+        <v>CREDIT_CARD</v>
+      </c>
+      <c r="H22">
+        <v>500221</v>
+      </c>
+      <c r="I22" t="str">
+        <v>PAID</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="str">
+        <v>INV-20250629-9574</v>
+      </c>
+      <c r="C23" t="str">
+        <v>25-09-2024</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Mr. Randy Torp</v>
+      </c>
+      <c r="E23" t="str">
+        <v>user8@student.unand.ac.id</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Ruang Seminar PKM</v>
+      </c>
+      <c r="G23" t="str">
+        <v>E_WALLET</v>
+      </c>
+      <c r="H23">
+        <v>670164</v>
+      </c>
+      <c r="I23" t="str">
+        <v>PAID</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="str">
+        <v>INV-20250629-4406</v>
+      </c>
+      <c r="C24" t="str">
+        <v>25-10-2024</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Walter Weber</v>
+      </c>
+      <c r="E24" t="str">
+        <v>user1@gmail.com</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Ruang Seminar PKM</v>
+      </c>
+      <c r="G24" t="str">
+        <v>BANK_TRANSFER</v>
+      </c>
+      <c r="H24">
+        <v>230527</v>
+      </c>
+      <c r="I24" t="str">
+        <v>PAID</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
+        <v>INV-20250629-4394</v>
+      </c>
+      <c r="C25" t="str">
+        <v>25-10-2024</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Kyle Heidenreich</v>
+      </c>
+      <c r="E25" t="str">
+        <v>user10@gmail.com</v>
+      </c>
+      <c r="F25" t="str">
+        <v>Lab Kimia</v>
+      </c>
+      <c r="G25" t="str">
+        <v>E_WALLET</v>
+      </c>
+      <c r="H25">
+        <v>885669</v>
+      </c>
+      <c r="I25" t="str">
+        <v>PAID</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="str">
+        <v>INV-20250629-4465</v>
+      </c>
+      <c r="C26" t="str">
+        <v>26-01-2025</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Dr. Maurice Jast</v>
+      </c>
+      <c r="E26" t="str">
+        <v>user21@student.unand.ac.id</v>
+      </c>
+      <c r="F26" t="str">
+        <v>Ruang Seminar FE</v>
+      </c>
+      <c r="G26" t="str">
+        <v>CREDIT_CARD</v>
+      </c>
+      <c r="H26">
+        <v>517873</v>
+      </c>
+      <c r="I26" t="str">
+        <v>PAID</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="str">
+        <v>INV-20250629-1185</v>
+      </c>
+      <c r="C27" t="str">
+        <v>26-06-2025</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Mr. Randy Torp</v>
+      </c>
+      <c r="E27" t="str">
+        <v>user8@student.unand.ac.id</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Ruang Kuliah Utara</v>
+      </c>
+      <c r="G27" t="str">
+        <v>CREDIT_CARD</v>
+      </c>
+      <c r="H27">
+        <v>309297</v>
+      </c>
+      <c r="I27" t="str">
+        <v>PAID</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="str">
+        <v>INV-20250629-0863</v>
+      </c>
+      <c r="C28" t="str">
+        <v>26-07-2024</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Pedro Walker</v>
+      </c>
+      <c r="E28" t="str">
+        <v>user3@student.unand.ac.id</v>
+      </c>
+      <c r="F28" t="str">
+        <v>Aula Utama</v>
+      </c>
+      <c r="G28" t="str">
+        <v>QRIS</v>
+      </c>
+      <c r="H28">
+        <v>547067</v>
+      </c>
+      <c r="I28" t="str">
+        <v>PAID</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="str">
+        <v>INV-20250629-1751211713592</v>
+      </c>
+      <c r="C29" t="str">
+        <v>29-06-2025</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Mhd Ulil Abshar</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Mhdulilabshar27@gmail.com</v>
+      </c>
+      <c r="F29" t="str">
+        <v>Aula Utama</v>
+      </c>
+      <c r="G29" t="str">
+        <v>BANK_TRANSFER</v>
+      </c>
+      <c r="H29">
+        <v>830028</v>
+      </c>
+      <c r="I29" t="str">
+        <v>PAID</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="str">
+        <v>INV-20250630-1751216480185</v>
+      </c>
+      <c r="C30" t="str">
+        <v>30-06-2025</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Mhd Ulil Abshar</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Mhdulilabshar27@gmail.com</v>
+      </c>
+      <c r="F30" t="str">
+        <v>Ruang Kelas C301</v>
+      </c>
+      <c r="G30" t="str">
+        <v>BANK_TRANSFER</v>
+      </c>
+      <c r="H30">
+        <v>52713</v>
+      </c>
+      <c r="I30" t="str">
         <v>PAID</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I30"/>
   </ignoredErrors>
 </worksheet>
 </file>